--- a/assets/sat_scores_std.xlsx
+++ b/assets/sat_scores_std.xlsx
@@ -14,22 +14,12 @@
   <sheets>
     <sheet name="sat_scores" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v3.0" hidden="1">sat_scores!$B$1</definedName>
-    <definedName name="_xlchart.v3.1" hidden="1">sat_scores!$B$2:$B$53</definedName>
-    <definedName name="_xlchart.v3.2" hidden="1">sat_scores!$B:$B</definedName>
-    <definedName name="_xlchart.v3.3" hidden="1">sat_scores!$B:$B</definedName>
-    <definedName name="_xlchart.v3.4" hidden="1">sat_scores!$C$2</definedName>
-    <definedName name="_xlchart.v3.5" hidden="1">sat_scores!$C$3:$C$54</definedName>
-    <definedName name="_xlchart.v3.6" hidden="1">sat_scores!$C:$C</definedName>
-  </definedNames>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>State</t>
   </si>
@@ -275,6 +265,21 @@
   </si>
   <si>
     <t>SAT Score.CSV Data File (Data Dictionary )</t>
+  </si>
+  <si>
+    <t>1 take mean</t>
+  </si>
+  <si>
+    <t>2.take variance from mean for each number</t>
+  </si>
+  <si>
+    <t>3. square of variance for each number</t>
+  </si>
+  <si>
+    <t>4. take mean of square of variance (step 3)</t>
+  </si>
+  <si>
+    <t>5. take sq rt of spte 4 = std dev</t>
   </si>
 </sst>
 </file>
@@ -818,11 +823,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1178,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R54"/>
+  <dimension ref="A1:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9:O9"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,6 +1197,11 @@
     <col min="15" max="15" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
@@ -1213,6 +1223,9 @@
       </c>
       <c r="I2" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
       </c>
       <c r="N2" s="1"/>
       <c r="O2" s="2" t="s">
@@ -1224,7 +1237,7 @@
       <c r="Q2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1260,6 +1273,9 @@
       <c r="J3" t="s">
         <v>56</v>
       </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
       <c r="N3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1272,7 +1288,7 @@
       <c r="Q3" s="1">
         <v>37.152999999999999</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="8">
         <v>27.036999999999999</v>
       </c>
     </row>
@@ -1308,6 +1324,9 @@
       <c r="J4" t="s">
         <v>57</v>
       </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
       <c r="N4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1320,7 +1339,7 @@
       <c r="Q4" s="1">
         <v>531.5</v>
       </c>
-      <c r="R4" s="9">
+      <c r="R4" s="8">
         <v>35.665999999999997</v>
       </c>
     </row>
@@ -1356,6 +1375,9 @@
       <c r="J5" t="s">
         <v>58</v>
       </c>
+      <c r="L5" t="s">
+        <v>86</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1368,7 +1390,7 @@
       <c r="Q5" s="1">
         <v>532.01</v>
       </c>
-      <c r="R5" s="9">
+      <c r="R5" s="8">
         <v>32.914999999999999</v>
       </c>
     </row>
@@ -1496,12 +1518,12 @@
         <f t="shared" si="2"/>
         <v>1145.5621301775147</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="1:18" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
